--- a/02_paper/02_study/02_fitbit paper/data/Coding_SRI.xlsx
+++ b/02_paper/02_study/02_fitbit paper/data/Coding_SRI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\02_paper\02_study\02_fitbit paper\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/02_paper/02_study/02_fitbit paper/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{042A3B2B-B9E5-410E-8911-66BDC5C6BFA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{9328E7CE-84C7-4FBE-B597-974B64640D0E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{175C3133-AF23-4AF2-B374-5D0A5CD9F9B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Novices" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="19">
   <si>
     <t>whispering</t>
   </si>
@@ -490,7 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
   <dimension ref="A1:E379"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -6956,10 +6956,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
-  <dimension ref="A1:K361"/>
+  <dimension ref="A1:K379"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A356" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E382" sqref="E382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12660,6 +12660,15 @@
       <c r="B335" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C335" s="1">
+        <v>2</v>
+      </c>
+      <c r="D335" s="1">
+        <v>9</v>
+      </c>
+      <c r="E335" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
@@ -12668,205 +12677,745 @@
       <c r="B336" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C336" s="1">
+        <v>3</v>
+      </c>
+      <c r="D336" s="1">
+        <v>9</v>
+      </c>
+      <c r="E336" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>238</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C337" s="1">
+        <v>3</v>
+      </c>
+      <c r="D337" s="1">
+        <v>9</v>
+      </c>
+      <c r="E337" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>238</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C338" s="1">
+        <v>0</v>
+      </c>
+      <c r="D338" s="1">
+        <v>10</v>
+      </c>
+      <c r="E338" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>238</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C339" s="1">
+        <v>7</v>
+      </c>
+      <c r="D339" s="1">
+        <v>8</v>
+      </c>
+      <c r="E339" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>238</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C340" s="1">
+        <v>5</v>
+      </c>
+      <c r="D340" s="1">
+        <v>8</v>
+      </c>
+      <c r="E340" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>238</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C341" s="1">
+        <v>0</v>
+      </c>
+      <c r="D341" s="1">
+        <v>7</v>
+      </c>
+      <c r="E341" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>238</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C342" s="1">
+        <v>2</v>
+      </c>
+      <c r="D342" s="1">
+        <v>10</v>
+      </c>
+      <c r="E342" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A343" s="3">
         <v>238</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C343" s="3">
+        <v>6</v>
+      </c>
+      <c r="D343" s="3">
+        <v>9</v>
+      </c>
+      <c r="E343" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>239</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C344" s="1">
+        <v>3</v>
+      </c>
+      <c r="D344" s="1">
+        <v>9</v>
+      </c>
+      <c r="E344" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>239</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C345" s="1">
+        <v>4</v>
+      </c>
+      <c r="D345" s="1">
+        <v>8</v>
+      </c>
+      <c r="E345" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>239</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C346" s="1">
+        <v>6</v>
+      </c>
+      <c r="D346" s="1">
+        <v>9</v>
+      </c>
+      <c r="E346" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>239</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C347" s="1">
+        <v>4</v>
+      </c>
+      <c r="D347" s="1">
+        <v>8</v>
+      </c>
+      <c r="E347" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>239</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C348" s="1">
+        <v>8</v>
+      </c>
+      <c r="D348" s="1">
+        <v>7</v>
+      </c>
+      <c r="E348" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>239</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C349" s="1">
+        <v>8</v>
+      </c>
+      <c r="D349" s="1">
+        <v>6</v>
+      </c>
+      <c r="E349" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>239</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C350" s="1">
+        <v>4</v>
+      </c>
+      <c r="D350" s="1">
+        <v>8</v>
+      </c>
+      <c r="E350" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>239</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="352" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C351" s="1">
+        <v>5</v>
+      </c>
+      <c r="D351" s="1">
+        <v>9</v>
+      </c>
+      <c r="E351" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A352" s="3">
         <v>239</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C352" s="3">
+        <v>9</v>
+      </c>
+      <c r="D352" s="3">
+        <v>8</v>
+      </c>
+      <c r="E352" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>240</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C353" s="1">
+        <v>0</v>
+      </c>
+      <c r="D353" s="1">
+        <v>9</v>
+      </c>
+      <c r="E353" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>240</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C354" s="1">
+        <v>3</v>
+      </c>
+      <c r="D354" s="1">
+        <v>9</v>
+      </c>
+      <c r="E354" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>240</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C355" s="1">
+        <v>5</v>
+      </c>
+      <c r="D355" s="1">
+        <v>5</v>
+      </c>
+      <c r="E355" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>240</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C356" s="1">
+        <v>7</v>
+      </c>
+      <c r="D356" s="1">
+        <v>3</v>
+      </c>
+      <c r="E356" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>240</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C357" s="1">
+        <v>3</v>
+      </c>
+      <c r="D357" s="1">
+        <v>9</v>
+      </c>
+      <c r="E357" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>240</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C358" s="1">
+        <v>2</v>
+      </c>
+      <c r="D358" s="1">
+        <v>9</v>
+      </c>
+      <c r="E358" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>240</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C359" s="1">
+        <v>3</v>
+      </c>
+      <c r="D359" s="1">
+        <v>9</v>
+      </c>
+      <c r="E359" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>240</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C360" s="1">
+        <v>4</v>
+      </c>
+      <c r="D360" s="1">
+        <v>9</v>
+      </c>
+      <c r="E360" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A361" s="3">
         <v>240</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="C361" s="3">
+        <v>7</v>
+      </c>
+      <c r="D361" s="3">
+        <v>4</v>
+      </c>
+      <c r="E361" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A362" s="1">
+        <v>241</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C362" s="1">
+        <v>3</v>
+      </c>
+      <c r="D362" s="1">
+        <v>9</v>
+      </c>
+      <c r="E362" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A363" s="1">
+        <v>241</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C363" s="1">
+        <v>6</v>
+      </c>
+      <c r="D363" s="1">
+        <v>7</v>
+      </c>
+      <c r="E363" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364" s="1">
+        <v>241</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C364" s="1">
+        <v>0</v>
+      </c>
+      <c r="D364" s="1">
+        <v>10</v>
+      </c>
+      <c r="E364" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365" s="1">
+        <v>241</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C365" s="1">
+        <v>3</v>
+      </c>
+      <c r="D365" s="1">
+        <v>8</v>
+      </c>
+      <c r="E365" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A366" s="1">
+        <v>241</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C366" s="1">
+        <v>4</v>
+      </c>
+      <c r="D366" s="1">
+        <v>9</v>
+      </c>
+      <c r="E366" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A367" s="1">
+        <v>241</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C367" s="1">
+        <v>1</v>
+      </c>
+      <c r="D367" s="1">
+        <v>9</v>
+      </c>
+      <c r="E367" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A368" s="1">
+        <v>241</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C368" s="1">
+        <v>7</v>
+      </c>
+      <c r="D368" s="1">
+        <v>8</v>
+      </c>
+      <c r="E368" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A369" s="1">
+        <v>241</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C369" s="1">
+        <v>6</v>
+      </c>
+      <c r="D369" s="1">
+        <v>10</v>
+      </c>
+      <c r="E369" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A370" s="3">
+        <v>241</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C370" s="3">
+        <v>6</v>
+      </c>
+      <c r="D370" s="3">
+        <v>8</v>
+      </c>
+      <c r="E370" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A371" s="1">
+        <v>242</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C371" s="1">
+        <v>2</v>
+      </c>
+      <c r="D371" s="1">
+        <v>8</v>
+      </c>
+      <c r="E371" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A372" s="1">
+        <v>242</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C372" s="1">
+        <v>7</v>
+      </c>
+      <c r="D372" s="1">
+        <v>5</v>
+      </c>
+      <c r="E372" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A373" s="1">
+        <v>242</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C373" s="1">
+        <v>6</v>
+      </c>
+      <c r="D373" s="1">
+        <v>7</v>
+      </c>
+      <c r="E373" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A374" s="1">
+        <v>242</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C374" s="1">
+        <v>8</v>
+      </c>
+      <c r="D374" s="1">
+        <v>9</v>
+      </c>
+      <c r="E374" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A375" s="1">
+        <v>242</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C375" s="1">
+        <v>2</v>
+      </c>
+      <c r="D375" s="1">
+        <v>9</v>
+      </c>
+      <c r="E375" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A376" s="1">
+        <v>242</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C376" s="1">
+        <v>8</v>
+      </c>
+      <c r="D376" s="1">
+        <v>6</v>
+      </c>
+      <c r="E376" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A377" s="1">
+        <v>242</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C377" s="1">
+        <v>6</v>
+      </c>
+      <c r="D377" s="1">
+        <v>8</v>
+      </c>
+      <c r="E377" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A378" s="1">
+        <v>242</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C378" s="1">
+        <v>8</v>
+      </c>
+      <c r="D378" s="1">
+        <v>7</v>
+      </c>
+      <c r="E378" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A379" s="3">
+        <v>242</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C379" s="3">
+        <v>7</v>
+      </c>
+      <c r="D379" s="3">
+        <v>7</v>
+      </c>
+      <c r="E379" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
